--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1721.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1721.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4628813952022819</v>
+        <v>0.8510499000549316</v>
       </c>
       <c r="B1">
-        <v>1.02918123896656</v>
+        <v>1.833649873733521</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.965285164759579</v>
+        <v>1.928653120994568</v>
       </c>
       <c r="E1">
-        <v>1.786819136351798</v>
+        <v>1.140200138092041</v>
       </c>
     </row>
   </sheetData>
